--- a/biology/Botanique/Forest_Park_(parc)/Forest_Park_(parc).xlsx
+++ b/biology/Botanique/Forest_Park_(parc)/Forest_Park_(parc).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forest Park est un parc municipal dans les Montagnes Tualatin (« West Hills ») à l'ouest du centre-ville de Portland, dans l'Oregon, aux États-Unis. S'étendant sur plus de 13 km sur les collines surplombant la rivière Willamette, il est l'une des plus grandes forêts urbaines du pays.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc, une composant majeure d'un système régional de parcs de sentiers, couvre plus de 5 100 acres (2 064 ha) de la plupart de la forêt secondaire avec quelques parcelles de la forêt primaire. 
 Près de 70 milles (110 km) de sentiers récréatifs, y compris le segment de Wildwood Trail de la ville du système de 40 Mile Loop, sillonnement le parc.
